--- a/projects/template_optim.xlsx
+++ b/projects/template_optim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1968,9 +1968,6 @@
     <t>standard_report_legacy.total_electricity</t>
   </si>
   <si>
-    <t>0.3.3</t>
-  </si>
-  <si>
     <t>Parameter Short Display Name</t>
   </si>
   <si>
@@ -2232,10 +2229,13 @@
     <t>large office</t>
   </si>
   <si>
-    <t>../seeds/11122_LargeOfficeOSM_AirCooledChiller.osm</t>
-  </si>
-  <si>
     <t>Optim Template</t>
+  </si>
+  <si>
+    <t>../seeds/large_office_air_cooled_chiller.osm</t>
+  </si>
+  <si>
+    <t>0.3.5</t>
   </si>
 </sst>
 </file>
@@ -2302,7 +2302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2393,6 +2393,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3896,7 +3902,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4000,6 +4006,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5796,8 +5803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5834,8 +5841,8 @@
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>642</v>
+      <c r="B3" s="44" t="s">
+        <v>731</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5857,7 +5864,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5879,7 +5886,7 @@
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
@@ -5929,7 +5936,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
@@ -5954,7 +5961,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -5965,7 +5972,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>619</v>
@@ -6265,7 +6272,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6291,12 +6298,12 @@
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="51" t="s">
         <v>730</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -6352,8 +6359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B34" sqref="A1:Z49"/>
+    <sheetView topLeftCell="J3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6409,14 +6416,14 @@
       <c r="R1" s="33"/>
       <c r="S1" s="30"/>
       <c r="T1" s="30"/>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A2" s="34" t="s">
@@ -6471,7 +6478,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6617,7 +6624,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6969,7 +6976,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7055,7 +7062,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7085,7 +7092,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7255,7 +7262,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7278,13 +7285,15 @@
       <c r="M22" s="46">
         <v>50</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="42">
+        <v>10</v>
+      </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q22" s="42" t="s">
         <v>726</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>727</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7457,7 +7466,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7621,7 +7630,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7718,7 +7727,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7785,13 +7794,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -7925,7 +7934,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -9843,7 +9852,7 @@
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>622</v>
@@ -9882,7 +9891,7 @@
         <v>629</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>630</v>
@@ -9921,7 +9930,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>637</v>
@@ -9956,7 +9965,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>640</v>
@@ -9988,15 +9997,15 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10017,15 +10026,15 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10046,15 +10055,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10075,15 +10084,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10104,12 +10113,12 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10133,12 +10142,12 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10162,12 +10171,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10191,12 +10200,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10220,12 +10229,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10249,12 +10258,12 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10278,12 +10287,12 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10307,12 +10316,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10336,12 +10345,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10365,12 +10374,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10394,12 +10403,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10423,12 +10432,12 @@
     </row>
     <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10452,12 +10461,12 @@
     </row>
     <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10481,12 +10490,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10510,15 +10519,15 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>707</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>708</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -19005,7 +19014,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -19013,19 +19022,19 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>649</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -19039,10 +19048,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -19056,10 +19065,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19073,44 +19082,44 @@
         <v>598</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>655</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>658</v>
-      </c>
       <c r="E7" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19124,10 +19133,10 @@
         <v>600</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19141,10 +19150,10 @@
         <v>602</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19158,10 +19167,10 @@
         <v>603</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
@@ -19175,10 +19184,10 @@
         <v>605</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
@@ -19186,16 +19195,16 @@
         <v>606</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>607</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_optim.xlsx
+++ b/projects/template_optim.xlsx
@@ -2187,9 +2187,6 @@
     <t>standard_reports.total_building_area</t>
   </si>
   <si>
-    <t>1.8.0-pre12</t>
-  </si>
-  <si>
     <t>South WWR</t>
   </si>
   <si>
@@ -2236,6 +2233,9 @@
   </si>
   <si>
     <t>0.3.5</t>
+  </si>
+  <si>
+    <t>1.8.0-rc2</t>
   </si>
 </sst>
 </file>
@@ -5804,7 +5804,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5842,7 +5842,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5864,7 +5864,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5909,7 +5909,7 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -5917,11 +5917,11 @@
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>32 Cores with 320 GB</v>
+        <v>16 Cores with 160 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$1.68/hour</v>
+        <v>$0.84/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$2.17/hour</v>
+        <v>$1.33/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
@@ -5961,7 +5961,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -5972,7 +5972,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>619</v>
@@ -6272,7 +6272,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6298,13 +6298,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>450</v>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7092,7 +7092,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7290,10 +7290,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q22" s="42" t="s">
         <v>725</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>726</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7794,7 +7794,7 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>

--- a/projects/template_optim.xlsx
+++ b/projects/template_optim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="734">
   <si>
     <t>type</t>
   </si>
@@ -1998,24 +1998,6 @@
     <t>80 GB</t>
   </si>
   <si>
-    <t>m2.2xlarge</t>
-  </si>
-  <si>
-    <t>$0.49/hour</t>
-  </si>
-  <si>
-    <t>850 GB</t>
-  </si>
-  <si>
-    <t>m2.4xlarge</t>
-  </si>
-  <si>
-    <t>$0.98/hour</t>
-  </si>
-  <si>
-    <t>840 GB</t>
-  </si>
-  <si>
     <t>16 GB</t>
   </si>
   <si>
@@ -2037,12 +2019,6 @@
     <t>Recommended for Server if large analysis because of storage</t>
   </si>
   <si>
-    <t>Worker Only</t>
-  </si>
-  <si>
-    <t>Worker Only - Recommended for Worker</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -2232,10 +2208,40 @@
     <t>../seeds/large_office_air_cooled_chiller.osm</t>
   </si>
   <si>
-    <t>0.3.5</t>
-  </si>
-  <si>
-    <t>1.8.0-rc2</t>
+    <t>0.3.6</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>Can be used as worker</t>
+  </si>
+  <si>
+    <t>Recommended for worker</t>
+  </si>
+  <si>
+    <t>i2.xlarge</t>
+  </si>
+  <si>
+    <t>$0.85/hour</t>
+  </si>
+  <si>
+    <t>800 GB</t>
+  </si>
+  <si>
+    <t>i2.2xlarge</t>
+  </si>
+  <si>
+    <t>$1.71/hour</t>
+  </si>
+  <si>
+    <t>AWS Tag</t>
+  </si>
+  <si>
+    <t>org=5500</t>
+  </si>
+  <si>
+    <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
   </si>
 </sst>
 </file>
@@ -2409,8 +2415,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1491">
+  <cellStyleXfs count="1499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4011,7 +4025,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1491">
+  <cellStyles count="1499">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4757,6 +4771,10 @@
     <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5502,6 +5520,10 @@
     <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5801,10 +5823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5842,7 +5864,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5864,7 +5886,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5886,19 +5908,19 @@
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>652</v>
+        <v>595</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
-        <v>Recommended for Server if large analysis because of storage</v>
+        <v>Recommended for Server</v>
       </c>
       <c r="D7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>4 Cores with 850 GB</v>
+        <v>4 Cores with 40 GB</v>
       </c>
       <c r="E7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.49/hour</v>
+        <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>610</v>
@@ -5909,19 +5931,19 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>604</v>
+        <v>440</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
-        <v>Worker Only - Recommended for Worker</v>
+        <v>Recommended for worker</v>
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>16 Cores with 160 GB</v>
+        <v>8 Cores with 80 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.84/hour</v>
+        <v>$0.42/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5936,54 +5958,57 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$1.33/hour</v>
+        <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
+      <c r="A10" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>473</v>
-      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>619</v>
+        <v>720</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>452</v>
+        <v>709</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>619</v>
@@ -5991,354 +6016,365 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>437</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B16" s="16" t="b">
+        <v>464</v>
+      </c>
+      <c r="B16" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>611</v>
+      <c r="F16" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>437</v>
+        <v>465</v>
+      </c>
+      <c r="B17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A20" s="6" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B21" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="23" customFormat="1">
-      <c r="B22" s="18"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" s="23" customFormat="1">
+      <c r="B23" s="18"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>epsilonGradient</v>
-      </c>
-      <c r="B24" s="18">
-        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>0.01</v>
-      </c>
-      <c r="C24" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>epsilon in gradient calculation</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>pgtol</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>epsilonGradient</v>
       </c>
       <c r="B25" s="18">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v>0.01</v>
       </c>
       <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>tolerance on the projected gradient</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>epsilon in gradient calculation</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>factr</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>pgtol</v>
       </c>
       <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>45036000000000</v>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>0.01</v>
       </c>
       <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Tolerance on delta_F</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>tolerance on the projected gradient</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6" s="23" customFormat="1">
+    <row r="27" spans="1:6">
       <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>maxit</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>factr</v>
       </c>
       <c r="B27" s="18">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>100</v>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>45036000000000</v>
       </c>
       <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Maximum number of iterations</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Tolerance on delta_F</v>
       </c>
       <c r="D27" s="27"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1">
       <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>normType</v>
-      </c>
-      <c r="B28" s="18" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>minkowski</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>maxit</v>
+      </c>
+      <c r="B28" s="18">
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>100</v>
       </c>
       <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Maximum number of iterations</v>
       </c>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:6" s="23" customFormat="1">
       <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>pPower</v>
-      </c>
-      <c r="B29" s="18">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>normType</v>
+      </c>
+      <c r="B29" s="18" t="str">
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>minkowski</v>
       </c>
       <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Lp norm power</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
       </c>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:6" s="23" customFormat="1">
       <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B30" s="18" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>pPower</v>
+      </c>
+      <c r="B30" s="18">
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>2</v>
       </c>
       <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Lp norm power</v>
       </c>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:6" s="23" customFormat="1">
       <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:6" s="23" customFormat="1">
       <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" s="23" customFormat="1">
       <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:6" s="23" customFormat="1">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:6" s="23" customFormat="1">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A36" s="6" t="s">
+      <c r="A35" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B35" s="18" t="str">
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C35" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:6" s="23" customFormat="1">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A39" s="6" t="s">
+      <c r="B38" s="26" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="8" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28">
-      <c r="A40" s="23" t="s">
+    <row r="41" spans="1:6" ht="28">
+      <c r="A41" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>727</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="B41" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="51" t="s">
-        <v>729</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="D41" s="51" t="s">
+        <v>721</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="56">
-      <c r="A42" s="6" t="s">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8" t="s">
         <v>616</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>AnalysisType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B17">
       <formula1>TrueFalse</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>Workflow</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -6624,7 +6660,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6976,7 +7012,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7062,7 +7098,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7092,7 +7128,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7262,7 +7298,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7290,10 +7326,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7466,7 +7502,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7630,7 +7666,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7727,7 +7763,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7794,13 +7830,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -7934,7 +7970,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -9930,7 +9966,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>637</v>
@@ -9965,7 +10001,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>640</v>
@@ -9997,15 +10033,15 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10026,15 +10062,15 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10055,15 +10091,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10084,15 +10120,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10113,12 +10149,12 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10142,12 +10178,12 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10171,12 +10207,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10200,12 +10236,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10229,12 +10265,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10258,12 +10294,12 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10287,12 +10323,12 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10316,12 +10352,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10345,12 +10381,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10374,12 +10410,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10403,12 +10439,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10432,12 +10468,12 @@
     </row>
     <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10461,12 +10497,12 @@
     </row>
     <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10490,12 +10526,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10519,15 +10555,15 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -18990,7 +19026,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19014,7 +19050,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -19034,7 +19070,7 @@
         <v>648</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -19051,7 +19087,7 @@
         <v>649</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -19068,7 +19104,7 @@
         <v>650</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19085,126 +19121,126 @@
         <v>651</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>654</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>664</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>655</v>
+        <v>601</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>656</v>
+        <v>602</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>664</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>599</v>
+        <v>440</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>665</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>665</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="22" t="s">
-        <v>440</v>
+        <v>606</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>447</v>
+        <v>654</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>666</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>604</v>
+        <v>726</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>605</v>
+        <v>727</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>606</v>
+        <v>729</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>660</v>
+        <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>607</v>
+        <v>730</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>661</v>
+        <v>728</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_optim.xlsx
+++ b/projects/template_optim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="743">
   <si>
     <t>type</t>
   </si>
@@ -2208,9 +2208,6 @@
     <t>../seeds/large_office_air_cooled_chiller.osm</t>
   </si>
   <si>
-    <t>0.3.6</t>
-  </si>
-  <si>
     <t>1.8.0</t>
   </si>
   <si>
@@ -2242,6 +2239,36 @@
   </si>
   <si>
     <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
+  </si>
+  <si>
+    <t>0.3.7</t>
+  </si>
+  <si>
+    <t>Worker Initialization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script</t>
+  </si>
+  <si>
+    <t>Arguments (in the form of an array ["19837,"z",{b: 'something'}])</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is initialized.  These can be used to download any analysis-wide files such as BCL data, utility data, etc. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Worker Finalization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script)</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is finalized. Can be used to push all the results of the anlaysis to a specific location. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio South</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio East</t>
   </si>
 </sst>
 </file>
@@ -5823,11 +5850,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5864,7 +5889,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5886,7 +5911,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5903,7 +5928,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -5970,16 +5995,16 @@
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>731</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>732</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6360,6 +6385,48 @@
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A46" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1">
+      <c r="B47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" s="23" customFormat="1">
+      <c r="B48" s="18"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A49" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="8" t="s">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -6395,8 +6462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView topLeftCell="J3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7461,8 +7528,8 @@
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>383</v>
+      <c r="B26" s="39" t="s">
+        <v>741</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7625,8 +7692,8 @@
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>383</v>
+      <c r="B30" s="39" t="s">
+        <v>742</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -19138,7 +19205,7 @@
         <v>652</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19155,7 +19222,7 @@
         <v>650</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19172,7 +19239,7 @@
         <v>651</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19189,7 +19256,7 @@
         <v>653</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19206,21 +19273,21 @@
         <v>655</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>727</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>728</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>658</v>
@@ -19228,16 +19295,16 @@
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>658</v>

--- a/projects/template_optim.xlsx
+++ b/projects/template_optim.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
@@ -2208,9 +2208,6 @@
     <t>../seeds/large_office_air_cooled_chiller.osm</t>
   </si>
   <si>
-    <t>1.8.0</t>
-  </si>
-  <si>
     <t>Can be used as worker</t>
   </si>
   <si>
@@ -2241,9 +2238,6 @@
     <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
   </si>
   <si>
-    <t>0.3.7</t>
-  </si>
-  <si>
     <t>Worker Initialization Scripts - Name</t>
   </si>
   <si>
@@ -2269,6 +2263,12 @@
   </si>
   <si>
     <t>Window to Wall Ratio East</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
   </si>
 </sst>
 </file>
@@ -5852,7 +5852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5889,7 +5891,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5911,7 +5913,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5995,16 +5997,16 @@
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>730</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>731</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6389,18 +6391,18 @@
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>736</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
@@ -6415,18 +6417,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -7529,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7693,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -19205,7 +19207,7 @@
         <v>652</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19222,7 +19224,7 @@
         <v>650</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19239,7 +19241,7 @@
         <v>651</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19256,7 +19258,7 @@
         <v>653</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19273,21 +19275,21 @@
         <v>655</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>726</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>727</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>658</v>
@@ -19295,16 +19297,16 @@
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>658</v>

--- a/projects/template_optim.xlsx
+++ b/projects/template_optim.xlsx
@@ -2268,7 +2268,7 @@
     <t>0.4.0</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.3</t>
   </si>
 </sst>
 </file>
@@ -5853,7 +5853,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/projects/template_optim.xlsx
+++ b/projects/template_optim.xlsx
@@ -1869,15 +1869,9 @@
     <t>Default Cluster</t>
   </si>
   <si>
-    <t>Number of worker nodes to start.</t>
-  </si>
-  <si>
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -1896,9 +1890,6 @@
     <t>West</t>
   </si>
   <si>
-    <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
-  </si>
-  <si>
     <t>Relative to this spreadsheet or absolute path</t>
   </si>
   <si>
@@ -2265,10 +2256,19 @@
     <t>Window to Wall Ratio East</t>
   </si>
   <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
     <t>1.9.3</t>
+  </si>
+  <si>
+    <t>Choose which OpenStudio Server Version to use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/api/amis_v2.json</t>
+  </si>
+  <si>
+    <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
+  </si>
+  <si>
+    <t>Typically leave this as TRUE unless you are running many worker nodes</t>
+  </si>
+  <si>
+    <t>0.4.2</t>
   </si>
 </sst>
 </file>
@@ -2442,8 +2442,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1499">
+  <cellStyleXfs count="1505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4052,7 +4058,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1499">
+  <cellStyles count="1505">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4802,6 +4808,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5551,6 +5560,9 @@
     <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5853,7 +5865,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5891,7 +5903,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5913,10 +5925,10 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>618</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46" customHeight="1">
@@ -5950,7 +5962,7 @@
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28">
@@ -5976,7 +5988,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="28">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -5985,28 +5997,28 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>609</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6024,7 +6036,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
@@ -6035,10 +6047,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6049,7 +6061,7 @@
         <v>452</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6071,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>611</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6101,7 +6113,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6128,13 +6140,13 @@
         <v>451</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
@@ -6321,7 +6333,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>31</v>
@@ -6335,7 +6347,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6349,7 +6361,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="8" t="s">
@@ -6361,13 +6373,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
@@ -6381,28 +6393,28 @@
         <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
@@ -6417,18 +6429,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -6464,9 +6476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -6583,7 +6593,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6729,7 +6739,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -7081,7 +7091,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7126,7 +7136,7 @@
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>255</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -7167,7 +7177,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7197,7 +7207,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7326,7 +7336,7 @@
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="39" t="s">
         <v>265</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -7367,7 +7377,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7395,10 +7405,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7531,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7571,7 +7581,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7668,7 +7678,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>84</v>
@@ -7695,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7735,7 +7745,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7832,7 +7842,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7899,13 +7909,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -8039,7 +8049,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -9957,10 +9967,10 @@
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>462</v>
@@ -9972,41 +9982,41 @@
         <v>11</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>621</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>625</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>627</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>628</v>
       </c>
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
       <c r="A3" s="35" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>463</v>
@@ -10018,30 +10028,30 @@
         <v>463</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="23" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>470</v>
@@ -10067,16 +10077,16 @@
     </row>
     <row r="5" spans="1:13" s="23" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>470</v>
@@ -10102,15 +10112,15 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10131,15 +10141,15 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10160,15 +10170,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10189,15 +10199,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10218,12 +10228,12 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10247,12 +10257,12 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10276,12 +10286,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10305,12 +10315,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10334,12 +10344,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10363,12 +10373,12 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10392,12 +10402,12 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10421,12 +10431,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10450,12 +10460,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10479,12 +10489,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10508,12 +10518,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10537,12 +10547,12 @@
     </row>
     <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10566,12 +10576,12 @@
     </row>
     <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10595,12 +10605,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10624,15 +10634,15 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -19119,7 +19129,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -19127,19 +19137,19 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>648</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -19153,10 +19163,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -19170,10 +19180,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19187,10 +19197,10 @@
         <v>598</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
@@ -19204,10 +19214,10 @@
         <v>600</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19221,10 +19231,10 @@
         <v>602</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19238,10 +19248,10 @@
         <v>603</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19255,10 +19265,10 @@
         <v>605</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19266,50 +19276,50 @@
         <v>606</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>607</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_optim.xlsx
+++ b/projects/template_optim.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$3</definedName>
-    <definedName name="AnalysisType">Lookups!$A$21:$A$27</definedName>
+    <definedName name="AnalysisType">Lookups!$A$21:$A$29</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$E$12</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$12</definedName>
     <definedName name="nsga">Lookups!$O$22:$P$28</definedName>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="747">
   <si>
     <t>type</t>
   </si>
@@ -1890,6 +1890,9 @@
     <t>West</t>
   </si>
   <si>
+    <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
+  </si>
+  <si>
     <t>Relative to this spreadsheet or absolute path</t>
   </si>
   <si>
@@ -1938,9 +1941,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>Temp</t>
-  </si>
-  <si>
     <t>Total Natural Gas Intensity</t>
   </si>
   <si>
@@ -2193,82 +2193,94 @@
     <t>large office</t>
   </si>
   <si>
+    <t>../seeds/large_office_air_cooled_chiller.osm</t>
+  </si>
+  <si>
+    <t>Can be used as worker</t>
+  </si>
+  <si>
+    <t>Recommended for worker</t>
+  </si>
+  <si>
+    <t>i2.xlarge</t>
+  </si>
+  <si>
+    <t>$0.85/hour</t>
+  </si>
+  <si>
+    <t>800 GB</t>
+  </si>
+  <si>
+    <t>i2.2xlarge</t>
+  </si>
+  <si>
+    <t>$1.71/hour</t>
+  </si>
+  <si>
+    <t>AWS Tag</t>
+  </si>
+  <si>
+    <t>org=5500</t>
+  </si>
+  <si>
+    <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
+  </si>
+  <si>
+    <t>Worker Initialization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script</t>
+  </si>
+  <si>
+    <t>Arguments (in the form of an array ["19837,"z",{b: 'something'}])</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is initialized.  These can be used to download any analysis-wide files such as BCL data, utility data, etc. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Worker Finalization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script)</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is finalized. Can be used to push all the results of the anlaysis to a specific location. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio South</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio East</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
+  </si>
+  <si>
+    <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
+  </si>
+  <si>
+    <t>Typically leave this as TRUE unless you are running many worker nodes</t>
+  </si>
+  <si>
+    <t>0.4.2</t>
+  </si>
+  <si>
+    <t>single_run</t>
+  </si>
+  <si>
+    <t>repeat_run</t>
+  </si>
+  <si>
+    <t>Number of Runs</t>
+  </si>
+  <si>
+    <t>Exit On Guideline14</t>
+  </si>
+  <si>
+    <t>0 false / 1 true (for use with calibration report)</t>
+  </si>
+  <si>
     <t>Optim Template</t>
-  </si>
-  <si>
-    <t>../seeds/large_office_air_cooled_chiller.osm</t>
-  </si>
-  <si>
-    <t>Can be used as worker</t>
-  </si>
-  <si>
-    <t>Recommended for worker</t>
-  </si>
-  <si>
-    <t>i2.xlarge</t>
-  </si>
-  <si>
-    <t>$0.85/hour</t>
-  </si>
-  <si>
-    <t>800 GB</t>
-  </si>
-  <si>
-    <t>i2.2xlarge</t>
-  </si>
-  <si>
-    <t>$1.71/hour</t>
-  </si>
-  <si>
-    <t>AWS Tag</t>
-  </si>
-  <si>
-    <t>org=5500</t>
-  </si>
-  <si>
-    <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
-  </si>
-  <si>
-    <t>Worker Initialization Scripts - Name</t>
-  </si>
-  <si>
-    <t>Path (relative or absolute) to local script</t>
-  </si>
-  <si>
-    <t>Arguments (in the form of an array ["19837,"z",{b: 'something'}])</t>
-  </si>
-  <si>
-    <t>These scripts will be executed in this order on each worker node when it is initialized.  These can be used to download any analysis-wide files such as BCL data, utility data, etc. Name is arbitary, but a name must exist to include the line.</t>
-  </si>
-  <si>
-    <t>Worker Finalization Scripts - Name</t>
-  </si>
-  <si>
-    <t>Path (relative or absolute) to local script)</t>
-  </si>
-  <si>
-    <t>These scripts will be executed in this order on each worker node when it is finalized. Can be used to push all the results of the anlaysis to a specific location. Name is arbitary, but a name must exist to include the line.</t>
-  </si>
-  <si>
-    <t>Window to Wall Ratio South</t>
-  </si>
-  <si>
-    <t>Window to Wall Ratio East</t>
-  </si>
-  <si>
-    <t>1.9.3</t>
-  </si>
-  <si>
-    <t>Choose which OpenStudio Server Version to use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/api/amis_v2.json</t>
-  </si>
-  <si>
-    <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
-  </si>
-  <si>
-    <t>Typically leave this as TRUE unless you are running many worker nodes</t>
-  </si>
-  <si>
-    <t>0.4.2</t>
   </si>
 </sst>
 </file>
@@ -2335,7 +2347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2426,14 +2438,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2441,11 +2447,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1505">
+  <cellStyleXfs count="1503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4047,18 +4060,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1505">
+  <cellStyles count="1503">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4810,7 +4825,6 @@
     <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5562,7 +5576,6 @@
     <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5864,21 +5877,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -5888,7 +5901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -5898,18 +5911,18 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
@@ -5920,18 +5933,18 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46" customHeight="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
@@ -5942,7 +5955,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -5965,12 +5978,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>440</v>
+        <v>606</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -5978,17 +5991,17 @@
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>8 Cores with 80 GB</v>
+        <v>32 Cores with 320 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.42/hour</v>
+        <v>$1.68/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6001,27 +6014,27 @@
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$0.7/hour</v>
+        <v>$1.96/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>726</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>727</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -6031,18 +6044,18 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6050,10 +6063,10 @@
         <v>706</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6061,10 +6074,10 @@
         <v>452</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6075,7 +6088,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6083,10 +6096,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6097,7 +6110,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>468</v>
       </c>
@@ -6108,7 +6121,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -6122,7 +6135,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
@@ -6130,12 +6143,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="23" customFormat="1">
+    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
@@ -6153,187 +6166,199 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>epsilonGradient</v>
       </c>
       <c r="B25" s="18">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>0.01</v>
       </c>
       <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>epsilon in gradient calculation</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>pgtol</v>
       </c>
       <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>0.01</v>
       </c>
       <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>tolerance on the projected gradient</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>factr</v>
       </c>
       <c r="B27" s="18">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>45036000000000</v>
       </c>
       <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>Tolerance on delta_F</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1">
+    <row r="28" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>maxit</v>
       </c>
       <c r="B28" s="18">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>100</v>
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>10</v>
       </c>
       <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>Maximum number of iterations</v>
       </c>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1">
+      <c r="D28" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>normType</v>
       </c>
       <c r="B29" s="18" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>minkowski</v>
       </c>
       <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1">
+    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>pPower</v>
       </c>
       <c r="B30" s="18">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>2</v>
       </c>
       <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>Lp norm power</v>
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1">
+    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v>Exit On Guideline14</v>
+      </c>
+      <c r="B31" s="18">
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v>0 false / 1 true (for use with calibration report)</v>
+      </c>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
-      <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B32" s="18" t="str">
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
-      <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C32" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:6" s="23" customFormat="1">
-      <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
-      <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B33" s="18" t="str">
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
-      <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C33" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" s="23" customFormat="1">
-      <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
-      <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B34" s="18" t="str">
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
-      <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
       <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1">
+    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B35" s="18" t="str">
-        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C35" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:6" s="23" customFormat="1">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B36" s="18" t="str">
+        <f>IF(D36&lt;&gt;"",D36,IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v/>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>31</v>
@@ -6342,7 +6367,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -6350,25 +6375,25 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="51" t="s">
         <v>455</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>32</v>
       </c>
@@ -6378,14 +6403,14 @@
       <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="51" t="s">
-        <v>718</v>
+      <c r="D41" s="14" t="s">
+        <v>717</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
@@ -6393,7 +6418,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -6401,46 +6426,46 @@
         <v>614</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="C46" s="6" t="s">
         <v>730</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>731</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="2" customFormat="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" s="23" customFormat="1">
+    <row r="48" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="18"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>733</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>734</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -6474,37 +6499,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1"/>
-    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="1"/>
+    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1"/>
-    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5" style="1"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6540,7 +6565,7 @@
       <c r="Y1" s="52"/>
       <c r="Z1" s="52"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6576,7 +6601,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -6654,7 +6679,7 @@
       </c>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1">
+    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
@@ -6692,7 +6717,7 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1">
+    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6732,7 +6757,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1">
+    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="42" t="s">
         <v>22</v>
@@ -6780,7 +6805,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1">
+    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6818,7 +6843,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1">
+    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6856,7 +6881,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1">
+    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6894,7 +6919,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1">
+    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6932,7 +6957,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1">
+    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -6970,7 +6995,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1">
+    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7008,7 +7033,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1">
+    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7046,7 +7071,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1">
+    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
@@ -7084,7 +7109,7 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1">
+    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>22</v>
@@ -7132,7 +7157,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
@@ -7170,7 +7195,7 @@
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
     </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>22</v>
@@ -7218,7 +7243,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7256,7 +7281,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7294,7 +7319,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7332,7 +7357,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
@@ -7370,7 +7395,7 @@
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
     </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
         <v>22</v>
@@ -7422,7 +7447,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7460,7 +7485,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7498,7 +7523,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7536,12 +7561,12 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7574,7 +7599,7 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
     </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
         <v>22</v>
@@ -7622,7 +7647,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7660,7 +7685,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7700,12 +7725,12 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7738,7 +7763,7 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
     </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" s="46" t="s">
         <v>22</v>
@@ -7786,7 +7811,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7824,7 +7849,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7864,7 +7889,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1">
+    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="b">
         <v>1</v>
       </c>
@@ -7902,7 +7927,7 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1">
+    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
       <c r="B35" s="42" t="s">
         <v>22</v>
@@ -7952,7 +7977,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1">
+    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -7992,7 +8017,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1">
+    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -8030,7 +8055,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1">
+    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -8068,111 +8093,147 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="29" customFormat="1" ht="15">
-      <c r="A39" s="49" t="b">
+    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-    </row>
-    <row r="40" spans="1:26" s="47" customFormat="1" ht="15">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50" t="s">
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+    </row>
+    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="48"/>
+      <c r="B40" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="48"/>
+      <c r="D40" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50" t="s">
+      <c r="F40" s="48"/>
+      <c r="G40" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50">
+      <c r="H40" s="48"/>
+      <c r="I40" s="48">
         <v>1</v>
       </c>
-      <c r="J40" s="50"/>
-      <c r="K40" s="48">
+      <c r="J40" s="48"/>
+      <c r="K40" s="49">
         <v>-2</v>
       </c>
-      <c r="L40" s="48">
-        <v>2</v>
-      </c>
-      <c r="M40" s="48">
-        <v>0</v>
-      </c>
-      <c r="N40" s="48">
+      <c r="L40" s="49">
+        <v>2</v>
+      </c>
+      <c r="M40" s="49">
+        <v>0</v>
+      </c>
+      <c r="N40" s="49">
         <f>(L40-K40)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O40" s="48">
+      <c r="O40" s="49">
         <v>1</v>
       </c>
-      <c r="R40" s="47" t="s">
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" s="47" customFormat="1" ht="15">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50" t="s">
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+    </row>
+    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50" t="s">
+      <c r="F41" s="48"/>
+      <c r="G41" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50">
+      <c r="H41" s="48"/>
+      <c r="I41" s="48">
         <v>-1</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="48">
+      <c r="J41" s="48"/>
+      <c r="K41" s="49">
         <v>-2</v>
       </c>
-      <c r="L41" s="48">
-        <v>2</v>
-      </c>
-      <c r="M41" s="48">
-        <v>0</v>
-      </c>
-      <c r="N41" s="48">
+      <c r="L41" s="49">
+        <v>2</v>
+      </c>
+      <c r="M41" s="49">
+        <v>0</v>
+      </c>
+      <c r="N41" s="49">
         <f>(L41-K41)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O41" s="48">
+      <c r="O41" s="49">
         <v>1</v>
       </c>
-      <c r="R41" s="47" t="s">
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+    </row>
+    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8195,7 +8256,7 @@
       <c r="J42" s="10"/>
       <c r="P42" s="23"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1">
+    <row r="43" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="b">
         <v>1</v>
       </c>
@@ -8212,43 +8273,58 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="47" customFormat="1">
-      <c r="B44" s="47" t="s">
+    <row r="44" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="C44" s="50"/>
+      <c r="D44" s="50" t="s">
         <v>535</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="G44" s="47" t="s">
+      <c r="F44" s="50"/>
+      <c r="G44" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I44" s="47">
+      <c r="H44" s="50"/>
+      <c r="I44" s="50">
         <v>44</v>
       </c>
-      <c r="K44" s="47">
+      <c r="J44" s="50"/>
+      <c r="K44" s="50">
         <v>42</v>
       </c>
-      <c r="L44" s="47">
+      <c r="L44" s="50">
         <v>46</v>
       </c>
-      <c r="M44" s="47">
+      <c r="M44" s="50">
         <v>44</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="49">
         <f>(L44-K44)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O44" s="48">
+      <c r="O44" s="49">
         <v>1</v>
       </c>
-      <c r="R44" s="47" t="s">
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" s="29" customFormat="1">
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+    </row>
+    <row r="45" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="b">
         <v>1</v>
       </c>
@@ -8264,44 +8340,80 @@
       <c r="E45" s="29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" s="47" customFormat="1">
-      <c r="B46" s="47" t="s">
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+    </row>
+    <row r="46" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50" t="s">
         <v>539</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="50" t="s">
         <v>538</v>
       </c>
-      <c r="G46" s="47" t="s">
+      <c r="F46" s="50"/>
+      <c r="G46" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I46" s="47">
+      <c r="H46" s="50"/>
+      <c r="I46" s="50">
         <v>120</v>
       </c>
-      <c r="K46" s="47">
+      <c r="J46" s="50"/>
+      <c r="K46" s="50">
         <v>118</v>
       </c>
-      <c r="L46" s="47">
+      <c r="L46" s="50">
         <v>122</v>
       </c>
-      <c r="M46" s="47">
+      <c r="M46" s="50">
         <v>120</v>
       </c>
-      <c r="N46" s="48">
+      <c r="N46" s="49">
         <f>(L46-K46)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O46" s="48">
+      <c r="O46" s="49">
         <v>1</v>
       </c>
-      <c r="R46" s="47" t="s">
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" s="28" customFormat="1" ht="15">
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+    </row>
+    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="b">
         <v>1</v>
       </c>
@@ -8339,7 +8451,7 @@
       <c r="Y47" s="39"/>
       <c r="Z47" s="39"/>
     </row>
-    <row r="48" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -8379,7 +8491,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8419,7 +8531,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8447,7 +8559,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8475,7 +8587,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8503,7 +8615,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8531,7 +8643,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8559,8 +8671,8 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -8587,7 +8699,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" customFormat="1" ht="15">
+    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8615,7 +8727,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15">
+    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8628,11 +8740,11 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -8643,8 +8755,8 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" customFormat="1" ht="15">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -8671,8 +8783,8 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" customFormat="1" ht="15">
-      <c r="A59" s="15"/>
+    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -8684,7 +8796,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="15"/>
+      <c r="M59" s="10"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
@@ -8699,7 +8811,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15">
+    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8712,11 +8824,11 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
@@ -8727,8 +8839,8 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" customFormat="1" ht="15">
-      <c r="A61" s="10"/>
+    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -8740,11 +8852,11 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
       <c r="R61" s="15"/>
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
@@ -8755,8 +8867,8 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15">
-      <c r="A62" s="15"/>
+    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -8768,7 +8880,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="15"/>
+      <c r="M62" s="10"/>
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
       <c r="P62" s="15"/>
@@ -8783,7 +8895,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
+    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8796,11 +8908,11 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
@@ -8811,8 +8923,8 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -8824,11 +8936,11 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
       <c r="T64" s="15"/>
@@ -8839,8 +8951,8 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15">
-      <c r="A65" s="15"/>
+    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -8852,7 +8964,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
-      <c r="M65" s="15"/>
+      <c r="M65" s="10"/>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
@@ -8867,7 +8979,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15">
+    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8880,11 +8992,11 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
@@ -8895,8 +9007,8 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15">
-      <c r="A67" s="10"/>
+    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -8908,11 +9020,11 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
       <c r="S67" s="15"/>
       <c r="T67" s="15"/>
@@ -8923,8 +9035,8 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15">
-      <c r="A68" s="15"/>
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -8936,7 +9048,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
-      <c r="M68" s="15"/>
+      <c r="M68" s="10"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
@@ -8951,7 +9063,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15">
+    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -8964,11 +9076,11 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
@@ -8979,24 +9091,24 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" ht="15">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
       <c r="R70" s="15"/>
       <c r="S70" s="15"/>
       <c r="T70" s="15"/>
@@ -9007,19 +9119,19 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" ht="15">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
@@ -9035,20 +9147,20 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" ht="15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
@@ -9063,24 +9175,24 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" ht="15">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="41"/>
       <c r="P73" s="41"/>
-      <c r="Q73" s="41"/>
+      <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
@@ -9091,7 +9203,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9119,7 +9231,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9147,7 +9259,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9175,7 +9287,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9190,8 +9302,8 @@
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
@@ -9203,7 +9315,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9231,7 +9343,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9245,9 +9357,9 @@
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
@@ -9259,7 +9371,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9287,7 +9399,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9315,7 +9427,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9343,7 +9455,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" ht="15">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9357,9 +9469,9 @@
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
@@ -9371,7 +9483,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9399,7 +9511,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9427,8 +9539,8 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26">
-      <c r="A86" s="15"/>
+    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
@@ -9442,8 +9554,8 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
@@ -9455,7 +9567,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9483,7 +9595,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9498,8 +9610,8 @@
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="15"/>
@@ -9511,7 +9623,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9526,8 +9638,8 @@
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
@@ -9539,8 +9651,8 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" ht="15">
-      <c r="A90" s="10"/>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -9554,8 +9666,8 @@
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
@@ -9567,7 +9679,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9582,8 +9694,8 @@
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -9595,7 +9707,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9610,8 +9722,8 @@
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
@@ -9623,7 +9735,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9651,7 +9763,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9679,7 +9791,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9707,7 +9819,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9735,7 +9847,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9763,7 +9875,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9791,118 +9903,6 @@
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
     </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
-      <c r="S99" s="15"/>
-      <c r="T99" s="15"/>
-      <c r="U99" s="15"/>
-      <c r="V99" s="15"/>
-      <c r="W99" s="15"/>
-      <c r="X99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="15"/>
-    </row>
-    <row r="100" spans="1:26">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="15"/>
-      <c r="S100" s="15"/>
-      <c r="T100" s="15"/>
-      <c r="U100" s="15"/>
-      <c r="V100" s="15"/>
-      <c r="W100" s="15"/>
-      <c r="X100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="15"/>
-    </row>
-    <row r="101" spans="1:26">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-      <c r="S101" s="15"/>
-      <c r="T101" s="15"/>
-      <c r="U101" s="15"/>
-      <c r="V101" s="15"/>
-      <c r="W101" s="15"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="15"/>
-    </row>
-    <row r="102" spans="1:26">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
-      <c r="T102" s="15"/>
-      <c r="U102" s="15"/>
-      <c r="V102" s="15"/>
-      <c r="W102" s="15"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="15"/>
-    </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
   <mergeCells count="1">
@@ -9922,30 +9922,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -9962,7 +9962,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>461</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>640</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>462</v>
@@ -9982,41 +9982,41 @@
         <v>11</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>641</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>463</v>
@@ -10028,19 +10028,17 @@
         <v>463</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>631</v>
-      </c>
-      <c r="M3" s="35" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1">
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>633</v>
       </c>
@@ -10075,7 +10073,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1">
+    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>636</v>
       </c>
@@ -10106,11 +10104,13 @@
       <c r="J5" s="15">
         <v>590</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="15">
+        <v>5</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1">
+    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>660</v>
       </c>
@@ -10139,7 +10139,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1">
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>662</v>
       </c>
@@ -10168,7 +10168,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1">
+    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>663</v>
       </c>
@@ -10197,7 +10197,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1">
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>664</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>64</v>
       </c>
       <c r="G9" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="15" t="b">
         <v>1</v>
@@ -10226,7 +10226,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1">
+    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>666</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1">
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>668</v>
       </c>
@@ -10284,7 +10284,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1">
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>670</v>
       </c>
@@ -10313,7 +10313,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1">
+    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>672</v>
       </c>
@@ -10342,7 +10342,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>674</v>
       </c>
@@ -10371,7 +10371,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1">
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>676</v>
       </c>
@@ -10400,7 +10400,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1">
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>678</v>
       </c>
@@ -10429,7 +10429,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1">
+    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>680</v>
       </c>
@@ -10458,7 +10458,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1">
+    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>682</v>
       </c>
@@ -10487,7 +10487,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1">
+    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>684</v>
       </c>
@@ -10516,7 +10516,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1">
+    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>686</v>
       </c>
@@ -10545,7 +10545,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1">
+    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>688</v>
       </c>
@@ -10574,7 +10574,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="23" customFormat="1">
+    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>690</v>
       </c>
@@ -10603,7 +10603,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1">
+    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>692</v>
       </c>
@@ -10632,7 +10632,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1">
+    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>694</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>64</v>
       </c>
       <c r="G24" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="15" t="b">
         <v>1</v>
@@ -10661,7 +10661,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -10676,7 +10676,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -10691,7 +10691,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10706,7 +10706,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10721,202 +10721,202 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="22"/>
     </row>
   </sheetData>
@@ -10938,19 +10938,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -10969,7 +10969,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -10990,7 +10990,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11193,7 +11193,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11214,7 +11214,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11260,7 +11260,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11352,7 +11352,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11417,7 +11417,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11532,7 +11532,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11578,7 +11578,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11624,7 +11624,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11643,7 +11643,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11664,7 +11664,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11756,7 +11756,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11779,7 +11779,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11848,7 +11848,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11867,7 +11867,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11888,7 +11888,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11957,7 +11957,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -12003,7 +12003,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -12072,7 +12072,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -12091,7 +12091,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -12112,7 +12112,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -12135,7 +12135,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12204,7 +12204,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12315,7 +12315,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12336,7 +12336,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12361,7 +12361,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12384,7 +12384,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12430,7 +12430,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12476,7 +12476,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12522,7 +12522,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12564,7 +12564,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12585,7 +12585,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12633,7 +12633,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12702,7 +12702,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12725,7 +12725,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12748,7 +12748,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12794,7 +12794,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12882,7 +12882,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12905,7 +12905,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12951,7 +12951,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -12974,7 +12974,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -12997,7 +12997,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -13066,7 +13066,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -13089,7 +13089,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -13131,7 +13131,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -13156,7 +13156,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13175,7 +13175,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13196,7 +13196,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13221,7 +13221,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13240,7 +13240,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13288,7 +13288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13332,7 +13332,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13351,7 +13351,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13376,7 +13376,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13422,7 +13422,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13468,7 +13468,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13533,7 +13533,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13556,7 +13556,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13579,7 +13579,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13621,7 +13621,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13644,7 +13644,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13690,7 +13690,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13759,7 +13759,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13778,7 +13778,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13803,7 +13803,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13872,7 +13872,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -13987,7 +13987,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -14006,7 +14006,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -14031,7 +14031,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -14052,7 +14052,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -14075,7 +14075,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -14098,7 +14098,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -14144,7 +14144,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14167,7 +14167,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14259,7 +14259,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14282,7 +14282,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14305,7 +14305,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14328,7 +14328,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14347,7 +14347,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14370,7 +14370,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14389,7 +14389,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14412,7 +14412,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14454,7 +14454,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14479,7 +14479,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14525,7 +14525,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14548,7 +14548,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14571,7 +14571,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14594,7 +14594,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14686,7 +14686,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14705,7 +14705,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14730,7 +14730,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14776,7 +14776,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14822,7 +14822,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14845,7 +14845,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14868,7 +14868,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14891,7 +14891,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14956,7 +14956,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -15002,7 +15002,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -15025,7 +15025,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -15048,7 +15048,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -15067,7 +15067,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -15136,7 +15136,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15178,7 +15178,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15199,7 +15199,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15222,7 +15222,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15241,7 +15241,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15264,7 +15264,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15289,7 +15289,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15310,7 +15310,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15335,7 +15335,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15360,7 +15360,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15379,7 +15379,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15404,7 +15404,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15473,7 +15473,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15496,7 +15496,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15519,7 +15519,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15542,7 +15542,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15607,7 +15607,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15632,7 +15632,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15678,7 +15678,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15835,7 +15835,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15856,7 +15856,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15879,7 +15879,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15925,7 +15925,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -15971,7 +15971,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -15994,7 +15994,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -16017,7 +16017,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -16040,7 +16040,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -16063,7 +16063,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16220,7 +16220,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16241,7 +16241,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16264,7 +16264,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16310,7 +16310,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16402,7 +16402,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16425,7 +16425,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16448,7 +16448,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16471,7 +16471,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16563,7 +16563,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16605,7 +16605,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16630,7 +16630,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16653,7 +16653,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16699,7 +16699,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16741,7 +16741,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16766,7 +16766,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16789,7 +16789,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16808,7 +16808,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16827,7 +16827,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16846,7 +16846,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16867,7 +16867,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16890,7 +16890,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16913,7 +16913,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16936,7 +16936,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -16959,7 +16959,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -16982,7 +16982,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -17005,7 +17005,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -17051,7 +17051,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -17074,7 +17074,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -17097,7 +17097,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -17116,7 +17116,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -17139,7 +17139,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -17158,7 +17158,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17183,7 +17183,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17206,7 +17206,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17252,7 +17252,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17275,7 +17275,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17298,7 +17298,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17321,7 +17321,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17344,7 +17344,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17367,7 +17367,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17390,7 +17390,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17413,7 +17413,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17432,7 +17432,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17455,7 +17455,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17474,7 +17474,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17495,7 +17495,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17514,7 +17514,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17535,7 +17535,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17554,7 +17554,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17575,7 +17575,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17594,7 +17594,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17617,7 +17617,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17636,7 +17636,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17661,7 +17661,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17684,7 +17684,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17707,7 +17707,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17730,7 +17730,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17753,7 +17753,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17776,7 +17776,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17799,7 +17799,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17845,7 +17845,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17864,7 +17864,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17887,7 +17887,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17910,7 +17910,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17956,7 +17956,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -17975,7 +17975,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -18021,7 +18021,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -18046,7 +18046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -18065,7 +18065,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -18090,7 +18090,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -18113,7 +18113,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -18132,7 +18132,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -18153,7 +18153,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18174,7 +18174,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18216,7 +18216,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18235,7 +18235,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18260,7 +18260,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18285,7 +18285,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18362,7 +18362,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18505,7 +18505,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18588,7 +18588,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18617,7 +18617,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18656,7 +18656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18690,7 +18690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18884,7 +18884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18954,7 +18954,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18980,7 +18980,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19021,7 +19021,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19102,23 +19102,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
+    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>642</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1">
+    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>593</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1">
+    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>595</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
+    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>597</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="22" customFormat="1">
+    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>599</v>
       </c>
@@ -19217,10 +19217,10 @@
         <v>649</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>601</v>
       </c>
@@ -19234,10 +19234,10 @@
         <v>647</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>440</v>
       </c>
@@ -19251,10 +19251,10 @@
         <v>648</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>604</v>
       </c>
@@ -19268,10 +19268,10 @@
         <v>650</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>606</v>
       </c>
@@ -19285,46 +19285,46 @@
         <v>652</v>
       </c>
       <c r="E10" s="22" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1">
-      <c r="A11" s="22" t="s">
-        <v>721</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>722</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>723</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="22" customFormat="1">
+    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="22" customFormat="1"/>
-    <row r="14" spans="1:7" s="22" customFormat="1"/>
-    <row r="15" spans="1:7">
+    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>573</v>
       </c>
@@ -19338,7 +19338,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>456</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -19363,8 +19363,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="22" customFormat="1"/>
-    <row r="20" spans="1:21">
+    <row r="18" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>551</v>
       </c>
@@ -19389,8 +19389,14 @@
       <c r="U20" s="22" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="X20" t="s">
+        <v>741</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -19430,8 +19436,17 @@
       <c r="Q21" s="22" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="AA21" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="AB21" s="22">
+        <v>30</v>
+      </c>
+      <c r="AC21" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -19472,7 +19487,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>545</v>
       </c>
@@ -19504,7 +19519,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -19536,7 +19551,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>553</v>
       </c>
@@ -19565,7 +19580,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -19597,10 +19612,19 @@
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>556</v>
       </c>
+      <c r="I27" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>745</v>
+      </c>
       <c r="L27" s="1" t="s">
         <v>546</v>
       </c>
@@ -19617,7 +19641,10 @@
         <v>543</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>741</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>561</v>
       </c>
@@ -19637,7 +19664,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>742</v>
+      </c>
       <c r="L29" s="1" t="s">
         <v>562</v>
       </c>
@@ -19647,8 +19677,17 @@
       <c r="N29" s="22" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="O29" t="s">
+        <v>744</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L30" s="1" t="s">
         <v>542</v>
       </c>
@@ -19656,7 +19695,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L31" s="1" t="s">
         <v>544</v>
       </c>
@@ -19667,9 +19706,20 @@
         <v>577</v>
       </c>
     </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L32" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
